--- a/biology/Médecine/1514_en_santé_et_médecine/1514_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1514_en_santé_et_médecine/1514_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1514_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1514_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1514 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1514_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1514_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les lettres patentes que le roi Louis XII accorde aux apothicaires de Paris précisent que « qui est épicier n'est pas apothicaire, mais qui est apothicaire est épicier[1] ».
-Épizootie de fièvre aphteuse en Italie, « la première dont nous ayons gardé une trace écrite[2] ».
-1513-1514 : Léonard de Vinci consacre ses derniers travaux à l'anatomie du cœur[3].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les lettres patentes que le roi Louis XII accorde aux apothicaires de Paris précisent que « qui est épicier n'est pas apothicaire, mais qui est apothicaire est épicier ».
+Épizootie de fièvre aphteuse en Italie, « la première dont nous ayons gardé une trace écrite ».
+1513-1514 : Léonard de Vinci consacre ses derniers travaux à l'anatomie du cœur.</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1514_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1514_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Fondation de la léproserie de Karacaahmet à Scutari, quartier d'Istanbul, sous le règne de Sélim Ier[4].
-1508-1514 : construction, « à l'instigation du capitoulat et grâce à des dons privés », de l'hôpital Saint-Sébastien de Toulouse, destiné aux pestiférés et qui « accueill[era], à partir de 1530, les pauvres valides étrangers à la ville et, à partir de 1543, l'excédent des pauvres de l'hôpital Saint-Jacques[5] ».</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fondation de la léproserie de Karacaahmet à Scutari, quartier d'Istanbul, sous le règne de Sélim Ier.
+1508-1514 : construction, « à l'instigation du capitoulat et grâce à des dons privés », de l'hôpital Saint-Sébastien de Toulouse, destiné aux pestiférés et qui « accueill[era], à partir de 1530, les pauvres valides étrangers à la ville et, à partir de 1543, l'excédent des pauvres de l'hôpital Saint-Jacques ».</t>
         </is>
       </c>
     </row>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1514_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1514_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Jean de Vigo (1450-1525) publie à Pavie, chez Étienne Guillery et Hercule Nanni, sa Practica in arte chirurgica[6].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Jean de Vigo (1450-1525) publie à Pavie, chez Étienne Guillery et Hercule Nanni, sa Practica in arte chirurgica.</t>
         </is>
       </c>
     </row>
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1514_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1514_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,13 +622,15 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>31 décembre : Vésale (mort en 1564), médecin et anatomiste brabançon[7],[8].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>31 décembre : Vésale (mort en 1564), médecin et anatomiste brabançon,.
 Vers 1514 :
-Hippolyte Salviani (mort vers 1572), médecin, zoologiste et botaniste italien[9],[10].
-Felix Würtz (mort en 1574 ou 1575), chirurgien suisse[11].
-Jean Placotomus (mort en 1576 ou 1577), médecin, pédagogue et écrivain allemand[12].</t>
+Hippolyte Salviani (mort vers 1572), médecin, zoologiste et botaniste italien,.
+Felix Würtz (mort en 1574 ou 1575), chirurgien suisse.
+Jean Placotomus (mort en 1576 ou 1577), médecin, pédagogue et écrivain allemand.</t>
         </is>
       </c>
     </row>
@@ -620,7 +640,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1514_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1514_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -638,10 +658,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>17 février : Adamus Polonus (né à une date inconnue), médecin, humaniste et philosophe polonais, archiatre de Sigismond Ier, professeur à l'université Jagellon de Cracovie[13].
-28 novembre : Hartmann Schedel (né en 1440), médecin allemand, auteur de l'un des incunables les plus remarquables : La Chronique de Nuremberg, publiée en 1493[14].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>17 février : Adamus Polonus (né à une date inconnue), médecin, humaniste et philosophe polonais, archiatre de Sigismond Ier, professeur à l'université Jagellon de Cracovie.
+28 novembre : Hartmann Schedel (né en 1440), médecin allemand, auteur de l'un des incunables les plus remarquables : La Chronique de Nuremberg, publiée en 1493.</t>
         </is>
       </c>
     </row>
